--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/PycharmProjects/XomePython3/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541EE40D-D825-C544-AAF0-19ADB9558683}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{285A5F5B-80C9-A745-AC0F-F06ADA6499C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="11580" windowWidth="23120" windowHeight="7440" firstSheet="2" activeTab="4" xr2:uid="{9E591401-0C67-8242-A747-6951EB72A76F}"/>
+    <workbookView xWindow="6240" yWindow="10240" windowWidth="23120" windowHeight="7440" firstSheet="2" activeTab="4" xr2:uid="{9E591401-0C67-8242-A747-6951EB72A76F}"/>
   </bookViews>
   <sheets>
     <sheet name="test_invalidLoginBlank" sheetId="28" r:id="rId1"/>

--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/PycharmProjects/XomePython3/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{285A5F5B-80C9-A745-AC0F-F06ADA6499C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75990DB8-26C3-3045-A75A-B854CE7AF599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="10240" windowWidth="23120" windowHeight="7440" firstSheet="2" activeTab="4" xr2:uid="{9E591401-0C67-8242-A747-6951EB72A76F}"/>
+    <workbookView xWindow="16440" yWindow="7200" windowWidth="23120" windowHeight="7440" firstSheet="2" activeTab="5" xr2:uid="{9E591401-0C67-8242-A747-6951EB72A76F}"/>
   </bookViews>
   <sheets>
     <sheet name="test_invalidLoginBlank" sheetId="28" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="test_invalidLoginWrongEmail" sheetId="7" r:id="rId3"/>
     <sheet name="test_validLogin" sheetId="26" r:id="rId4"/>
     <sheet name="test_loginSearch" sheetId="8" r:id="rId5"/>
-    <sheet name="filterResultsBySqFeet" sheetId="20" r:id="rId6"/>
+    <sheet name="test_filterResultsBySqFeet" sheetId="20" r:id="rId6"/>
     <sheet name="filterResultsByYear" sheetId="21" r:id="rId7"/>
     <sheet name="filterResultsByKeyword" sheetId="22" r:id="rId8"/>
   </sheets>
@@ -588,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B4B6B2-17B7-AE4C-A032-FBC61DA343B8}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438BF9EE-504E-CB42-8C48-160711D3E2DE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/PycharmProjects/XomePython3/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75990DB8-26C3-3045-A75A-B854CE7AF599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9695A948-164C-304A-8DB3-5A2881897642}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16440" yWindow="7200" windowWidth="23120" windowHeight="7440" firstSheet="2" activeTab="5" xr2:uid="{9E591401-0C67-8242-A747-6951EB72A76F}"/>
+    <workbookView xWindow="15720" yWindow="6880" windowWidth="23380" windowHeight="11720" firstSheet="2" activeTab="6" xr2:uid="{9E591401-0C67-8242-A747-6951EB72A76F}"/>
   </bookViews>
   <sheets>
     <sheet name="test_invalidLoginBlank" sheetId="28" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="test_validLogin" sheetId="26" r:id="rId4"/>
     <sheet name="test_loginSearch" sheetId="8" r:id="rId5"/>
     <sheet name="test_filterResultsBySqFeet" sheetId="20" r:id="rId6"/>
-    <sheet name="filterResultsByYear" sheetId="21" r:id="rId7"/>
+    <sheet name="test_filterResultsByYear" sheetId="21" r:id="rId7"/>
     <sheet name="filterResultsByKeyword" sheetId="22" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -640,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438BF9EE-504E-CB42-8C48-160711D3E2DE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F123DA-DB1B-A340-BE9B-BFE3B1D72E51}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
